--- a/Documents/Soccer/pickle/stadium.xlsx
+++ b/Documents/Soccer/pickle/stadium.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbyparra/Documents/Soccer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbyparra/Documents/Soccer/pickle/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1560" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="277">
   <si>
     <t>Hull City FC</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Bologna FC</t>
   </si>
   <si>
-    <t>US CittÌÁ di Palermo</t>
-  </si>
-  <si>
     <t>US Sassuolo Calcio</t>
   </si>
   <si>
@@ -260,9 +257,6 @@
     <t>VfL Wolfsburg</t>
   </si>
   <si>
-    <t xml:space="preserve">	1. FSV Mainz 05</t>
-  </si>
-  <si>
     <t>Eintracht Frankfurt</t>
   </si>
   <si>
@@ -275,9 +269,6 @@
     <t>FC Ingolstadt 04</t>
   </si>
   <si>
-    <t xml:space="preserve">	SV Darmstadt 98</t>
-  </si>
-  <si>
     <t>Hertha BSC</t>
   </si>
   <si>
@@ -287,9 +278,6 @@
     <t>TSG 1899 Hoffenheim</t>
   </si>
   <si>
-    <t xml:space="preserve">	Red Bull Leipzig</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -351,6 +339,525 @@
   </si>
   <si>
     <t>Watford, England</t>
+  </si>
+  <si>
+    <t>Riverside Stadium</t>
+  </si>
+  <si>
+    <t>Middlesbrough, England</t>
+  </si>
+  <si>
+    <t>bet365 Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">England </t>
+  </si>
+  <si>
+    <t>Goodison Park</t>
+  </si>
+  <si>
+    <t>Liverpool, England</t>
+  </si>
+  <si>
+    <t>White Hart Lane</t>
+  </si>
+  <si>
+    <t>London, England</t>
+  </si>
+  <si>
+    <t>Selhurst Park</t>
+  </si>
+  <si>
+    <t>The Hawthorns</t>
+  </si>
+  <si>
+    <t>Turf Moor</t>
+  </si>
+  <si>
+    <t>Lancashire,England</t>
+  </si>
+  <si>
+    <t>Liberty Stadium</t>
+  </si>
+  <si>
+    <t>Swansea, Wales</t>
+  </si>
+  <si>
+    <t>Etihad Stadium</t>
+  </si>
+  <si>
+    <t>Manchester, England</t>
+  </si>
+  <si>
+    <t>Stadium of Light</t>
+  </si>
+  <si>
+    <t>Sunderland, England</t>
+  </si>
+  <si>
+    <t>Dean Court</t>
+  </si>
+  <si>
+    <t>Bournemouth, England</t>
+  </si>
+  <si>
+    <t>Old Trafford</t>
+  </si>
+  <si>
+    <t>Emirates Stadium</t>
+  </si>
+  <si>
+    <t>Anfield</t>
+  </si>
+  <si>
+    <t>Stamford Bridge</t>
+  </si>
+  <si>
+    <t>London Stadium</t>
+  </si>
+  <si>
+    <t>Stadio Olimpico</t>
+  </si>
+  <si>
+    <t>Rome, Italy</t>
+  </si>
+  <si>
+    <t>Dacia Arena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezia, Italy </t>
+  </si>
+  <si>
+    <t>Juventus Stadium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turin, Italy </t>
+  </si>
+  <si>
+    <t>Stadio Comunale Artemio Franchi</t>
+  </si>
+  <si>
+    <t>Florence, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Giuseppe Meazza</t>
+  </si>
+  <si>
+    <t>Milan, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Olimpico Grande Torino</t>
+  </si>
+  <si>
+    <t>ChievoVerona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verona, Italy </t>
+  </si>
+  <si>
+    <t>San Siro</t>
+  </si>
+  <si>
+    <t>Stadio Carlo Castellani</t>
+  </si>
+  <si>
+    <t>Empoli, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Luigi Ferraris</t>
+  </si>
+  <si>
+    <t>Genoa, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Comunale Sant'Elia</t>
+  </si>
+  <si>
+    <t>Cagliari, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Renato Dall'Ara</t>
+  </si>
+  <si>
+    <t>Stadio Comunale Ezio Scida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crotone, Italy </t>
+  </si>
+  <si>
+    <t>Bologna, Italy</t>
+  </si>
+  <si>
+    <t>US Città di Palermo</t>
+  </si>
+  <si>
+    <t>Palermo, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Comunale Renzo Barbera</t>
+  </si>
+  <si>
+    <t>Mapei Stadium</t>
+  </si>
+  <si>
+    <t>Reggio Emilia, Italy</t>
+  </si>
+  <si>
+    <t>Stadio Adriatico – Giovanni Cornacchia</t>
+  </si>
+  <si>
+    <t>Pescara, Italy</t>
+  </si>
+  <si>
+    <t>Naples, Italy</t>
+  </si>
+  <si>
+    <t>Stadio San Paolo</t>
+  </si>
+  <si>
+    <t>Stadio Atleti Azzurri d'Italia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergamo, Italy </t>
+  </si>
+  <si>
+    <t>La Rosaleda</t>
+  </si>
+  <si>
+    <t>El Sadar</t>
+  </si>
+  <si>
+    <t>Pamplona, Spain</t>
+  </si>
+  <si>
+    <t>Málaga, Spain</t>
+  </si>
+  <si>
+    <t>Riazor</t>
+  </si>
+  <si>
+    <t>Coruña, Spain</t>
+  </si>
+  <si>
+    <t>Ipurua</t>
+  </si>
+  <si>
+    <t>Eibar, Spain</t>
+  </si>
+  <si>
+    <t>Camp Nou</t>
+  </si>
+  <si>
+    <t>Barcelona, Spain</t>
+  </si>
+  <si>
+    <t>Benito Villamarín</t>
+  </si>
+  <si>
+    <t>Los Cármenes</t>
+  </si>
+  <si>
+    <t>Granada, Spain</t>
+  </si>
+  <si>
+    <t>Seviilla, Spain</t>
+  </si>
+  <si>
+    <t>Estadio de la Cerámicosa</t>
+  </si>
+  <si>
+    <t>Villareal, Spain</t>
+  </si>
+  <si>
+    <t>Ramón Sánchez Pizjuán</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sevilla, Spain </t>
+  </si>
+  <si>
+    <t>RCDE Stadium</t>
+  </si>
+  <si>
+    <t>El Molinón</t>
+  </si>
+  <si>
+    <t>Gijón, Spain</t>
+  </si>
+  <si>
+    <t>San Mamés</t>
+  </si>
+  <si>
+    <t>Bilbao, Spain</t>
+  </si>
+  <si>
+    <t>Anoeta</t>
+  </si>
+  <si>
+    <t>San Sebasian, Spain</t>
+  </si>
+  <si>
+    <t>Santiago Bernabéu Stadium</t>
+  </si>
+  <si>
+    <t>Madrid, Spain</t>
+  </si>
+  <si>
+    <t>Estadio Vicente Calderón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madrid, Spain </t>
+  </si>
+  <si>
+    <t>Estadio Mendizorrotza</t>
+  </si>
+  <si>
+    <t>Vitoria-Gasteiz, Spain</t>
+  </si>
+  <si>
+    <t>Estadio Municipal de Balaídos</t>
+  </si>
+  <si>
+    <t>Vigo, Spain</t>
+  </si>
+  <si>
+    <t>Estadio Municipal de Butarque</t>
+  </si>
+  <si>
+    <t>Leganés, Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mestalla</t>
+  </si>
+  <si>
+    <t>Valencia, Spain</t>
+  </si>
+  <si>
+    <t>Estadio de Gran Canaria</t>
+  </si>
+  <si>
+    <t>Las Palmas, Spain</t>
+  </si>
+  <si>
+    <t>St. Jakob Park</t>
+  </si>
+  <si>
+    <t>Basel, Switzerland</t>
+  </si>
+  <si>
+    <t>Ludogorets Arena</t>
+  </si>
+  <si>
+    <t>Razgrad, Bulgaria</t>
+  </si>
+  <si>
+    <t>Allianz Arena</t>
+  </si>
+  <si>
+    <t>Munich, Germany</t>
+  </si>
+  <si>
+    <t>Olimp-2</t>
+  </si>
+  <si>
+    <t>Rostov-on-Don, Russia</t>
+  </si>
+  <si>
+    <t>Philips Stadion</t>
+  </si>
+  <si>
+    <t>Eindhoven, Netherlands</t>
+  </si>
+  <si>
+    <t>Celtic Park</t>
+  </si>
+  <si>
+    <t>Glasgow, Scotland</t>
+  </si>
+  <si>
+    <t>NSC Olimpiyskiy Stadium</t>
+  </si>
+  <si>
+    <t>Kiev, Ukraine</t>
+  </si>
+  <si>
+    <t>Estádio do Sport Lisboa e Benfica</t>
+  </si>
+  <si>
+    <t>Lisboa, Portugal</t>
+  </si>
+  <si>
+    <t>Vodafone Arena</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>Parc des Princes</t>
+  </si>
+  <si>
+    <t>Paris, France</t>
+  </si>
+  <si>
+    <t>Stadion Wojska Polskiego</t>
+  </si>
+  <si>
+    <t>Warsaw, Poland</t>
+  </si>
+  <si>
+    <t>Westfalenstadion</t>
+  </si>
+  <si>
+    <t>Dortmund, Germany</t>
+  </si>
+  <si>
+    <t>Parc Olympique Lyonnais</t>
+  </si>
+  <si>
+    <t>Charpieu,France</t>
+  </si>
+  <si>
+    <t>Stadion Maksimir</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zagreb, Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porto, Portugal</t>
+  </si>
+  <si>
+    <t>Estádio do Dragão</t>
+  </si>
+  <si>
+    <t>Telia Parken</t>
+  </si>
+  <si>
+    <t>Copenhagen, Denmark</t>
+  </si>
+  <si>
+    <t>Jan Breydel Stadium</t>
+  </si>
+  <si>
+    <t>Bruges, Belgium</t>
+  </si>
+  <si>
+    <t>Estádio José Alvalade</t>
+  </si>
+  <si>
+    <t>BayArena</t>
+  </si>
+  <si>
+    <t>Leverkusen, Germany</t>
+  </si>
+  <si>
+    <t>VEB Arena</t>
+  </si>
+  <si>
+    <t>Moscow, Russia</t>
+  </si>
+  <si>
+    <t>Mönchengladbach, Germany</t>
+  </si>
+  <si>
+    <t>Borussia-Park</t>
+  </si>
+  <si>
+    <t>Fontvieille, Monaco</t>
+  </si>
+  <si>
+    <t>Stade Louis-II</t>
+  </si>
+  <si>
+    <t>Weserstadion</t>
+  </si>
+  <si>
+    <t>Bremen, Germany</t>
+  </si>
+  <si>
+    <t>WWK Arena</t>
+  </si>
+  <si>
+    <t>Augsburg, Germany</t>
+  </si>
+  <si>
+    <t>Volkswagen Arena</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolfsburg, Germany</t>
+  </si>
+  <si>
+    <t>Opel Arena</t>
+  </si>
+  <si>
+    <t>Palatinate, Germany</t>
+  </si>
+  <si>
+    <t>Commerzbank-Arena</t>
+  </si>
+  <si>
+    <t>Hessen, Germany</t>
+  </si>
+  <si>
+    <t>VELTINS-Arena</t>
+  </si>
+  <si>
+    <t>Westphalia, Germany</t>
+  </si>
+  <si>
+    <t>Volksparkstadion</t>
+  </si>
+  <si>
+    <t>Hamburg, Germany</t>
+  </si>
+  <si>
+    <t>Audi Sportpark</t>
+  </si>
+  <si>
+    <t>Ingolstadt, Germany</t>
+  </si>
+  <si>
+    <t>Cologne, Germany</t>
+  </si>
+  <si>
+    <t>RheinEnergieSTADION</t>
+  </si>
+  <si>
+    <t>SV Darmstadt 98</t>
+  </si>
+  <si>
+    <t>1. FSV Mainz 05</t>
+  </si>
+  <si>
+    <t>Red Bull Leipzig</t>
+  </si>
+  <si>
+    <t>Darmstadt, Germany</t>
+  </si>
+  <si>
+    <t>Jonathan-Heimes-Stadion am Böllenfalltor</t>
+  </si>
+  <si>
+    <t>Olympiastadion Berlin</t>
+  </si>
+  <si>
+    <t>Berlin, Germany</t>
+  </si>
+  <si>
+    <t>Schwarzwald-Stadion</t>
+  </si>
+  <si>
+    <t>WIRSOL Rhein-Neckar-Arena</t>
+  </si>
+  <si>
+    <t>Baden-Württemberg, Germany</t>
+  </si>
+  <si>
+    <t>Freiburg, Germany</t>
+  </si>
+  <si>
+    <t>Red Bull Arena</t>
+  </si>
+  <si>
+    <t>Leipzig, Germany</t>
   </si>
 </sst>
 </file>
@@ -386,9 +893,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -668,40 +1178,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1">
         <v>24400</v>
@@ -709,13 +1220,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D3" s="1">
         <v>32312</v>
@@ -723,13 +1234,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1">
         <v>32505</v>
@@ -737,476 +1248,1304 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D5" s="1">
         <v>23700</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="1">
+        <v>33746</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="1">
+        <v>27902</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="1">
+        <v>39572</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="1">
+        <v>36284</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25456</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>113</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="1">
+        <v>26850</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="1">
+        <v>21401</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>116</v>
+      </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="1">
+        <v>21088</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="1">
+        <v>55097</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>120</v>
+      </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15" s="1">
+        <v>48707</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="1">
+        <v>11464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1">
+        <v>75643</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>125</v>
+      </c>
       <c r="B18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="1">
+        <v>60432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>126</v>
+      </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1">
+        <v>54074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>129</v>
+      </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="1">
+        <v>70634</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="1">
+        <v>25144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41507</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="1">
+        <v>43147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
       <c r="B26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="1">
+        <v>80018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>139</v>
+      </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D27" s="1">
+        <v>27958</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>140</v>
+      </c>
       <c r="B28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="1">
+        <v>39371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="1">
+        <v>80018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
       <c r="B30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="1">
+        <v>16284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
       <c r="B31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="1">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>145</v>
+      </c>
       <c r="B32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="1">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>147</v>
+      </c>
       <c r="B33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>149</v>
+      </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="1">
+        <v>38279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
       <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1">
+        <v>16547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D36" s="1">
+        <v>36349</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>157</v>
+      </c>
+      <c r="D37" s="1">
+        <v>23717</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1">
+        <v>20515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="1">
+        <v>60240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D40" s="1">
+        <v>26562</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
+      <c r="D41" s="1">
+        <v>70634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+      <c r="B42" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" t="s">
+        <v>167</v>
+      </c>
+      <c r="D42" s="1">
+        <v>30044</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="1">
+        <v>18761</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="1">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>170</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="1">
+        <v>7083</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="1">
+        <v>99354</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="1">
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>175</v>
+      </c>
+      <c r="B48" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" t="s">
+        <v>176</v>
+      </c>
+      <c r="D48" s="1">
+        <v>23934</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" s="1">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>185</v>
+      </c>
+      <c r="B53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="1">
+        <v>53289</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D54" s="1">
+        <v>32300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1">
+        <v>81044</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>191</v>
+      </c>
+      <c r="B56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
+      <c r="C56" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="1">
+        <v>54907</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B57" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+      <c r="C57" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="1">
+        <v>19840</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>195</v>
+      </c>
+      <c r="B58" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" t="s">
+        <v>196</v>
+      </c>
+      <c r="D58" s="1">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10954</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" t="s">
+        <v>200</v>
+      </c>
+      <c r="D60" s="1">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="1">
+        <v>33111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="1">
+        <v>38512</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>205</v>
+      </c>
+      <c r="B63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="1">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>207</v>
+      </c>
+      <c r="B64" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+      <c r="C64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="1">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>209</v>
+      </c>
+      <c r="B65" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="1">
+        <v>15840</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>212</v>
+      </c>
+      <c r="D66" s="1">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>213</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" t="s">
+        <v>214</v>
+      </c>
+      <c r="D67" s="1">
+        <v>60411</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>215</v>
+      </c>
+      <c r="B68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" s="1">
+        <v>70050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" t="s">
+        <v>218</v>
+      </c>
+      <c r="D69" s="1">
+        <v>64642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="1">
+        <v>48583</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>223</v>
+      </c>
+      <c r="B72" t="s">
+        <v>61</v>
+      </c>
+      <c r="C72" t="s">
+        <v>224</v>
+      </c>
+      <c r="D72" s="1">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>226</v>
+      </c>
+      <c r="D73" s="1">
+        <v>81360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>227</v>
+      </c>
+      <c r="B74" t="s">
+        <v>63</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="1">
+        <v>59186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s">
+        <v>230</v>
+      </c>
+      <c r="D75" s="1">
+        <v>35123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" s="1">
+        <v>50434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>233</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="1">
+        <v>38065</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+      <c r="B78" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" t="s">
+        <v>236</v>
+      </c>
+      <c r="D78" s="1">
+        <v>29042</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>237</v>
+      </c>
+      <c r="B79" t="s">
+        <v>69</v>
+      </c>
+      <c r="C79" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="1">
+        <v>50095</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>238</v>
+      </c>
+      <c r="B80" t="s">
+        <v>70</v>
+      </c>
+      <c r="C80" t="s">
+        <v>239</v>
+      </c>
+      <c r="D80" s="1">
+        <v>30210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="s">
+        <v>71</v>
+      </c>
+      <c r="C81" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+      <c r="C82" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="1">
+        <v>54057</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>244</v>
+      </c>
+      <c r="D83" s="1">
+        <v>18523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>246</v>
+      </c>
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" t="s">
+        <v>247</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
+      <c r="D85" s="1">
+        <v>30660</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" t="s">
+        <v>251</v>
+      </c>
+      <c r="D86" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>252</v>
+      </c>
+      <c r="B87" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="1">
+        <v>34034</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B88" t="s">
+        <v>76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>255</v>
+      </c>
+      <c r="D88" s="1">
+        <v>51500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" t="s">
+        <v>77</v>
+      </c>
+      <c r="C89" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" s="1">
+        <v>62271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>258</v>
+      </c>
+      <c r="B90" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D90" s="1">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>260</v>
+      </c>
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>261</v>
+      </c>
+      <c r="D91" s="1">
+        <v>15800</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B92" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" t="s">
+      <c r="C92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="1">
+        <v>49968</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B93" t="s">
+        <v>264</v>
+      </c>
+      <c r="C93" t="s">
+        <v>267</v>
+      </c>
+      <c r="D93" s="1">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>269</v>
+      </c>
+      <c r="B94" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+      <c r="C94" t="s">
+        <v>270</v>
+      </c>
+      <c r="D94" s="1">
+        <v>74475</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" t="s">
+      <c r="C95" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="1">
+        <v>30150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>275</v>
+      </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>266</v>
+      </c>
+      <c r="C97" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42959</v>
       </c>
     </row>
   </sheetData>
